--- a/public/cursoTesis-2022/AlumnoCursoTesis2022.xlsx
+++ b/public/cursoTesis-2022/AlumnoCursoTesis2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Platform-hosting\public\cursoTesis-2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proyect-tesis-conta\public\cursoTesis-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0308597C-16B2-4A4A-B687-CEB519D0096B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842C132D-7282-4DB0-8AD7-F712C1C12216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6465" yWindow="2070" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6360" yWindow="915" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AlumnoCursoTesis2022" sheetId="1" r:id="rId1"/>
@@ -1405,12 +1405,13 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">

--- a/public/cursoTesis-2022/AlumnoCursoTesis2022.xlsx
+++ b/public/cursoTesis-2022/AlumnoCursoTesis2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proyect-tesis-conta\public\cursoTesis-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842C132D-7282-4DB0-8AD7-F712C1C12216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FE7D6E-1B1D-4A42-83A6-675FD84D8D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="915" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AlumnoCursoTesis2022" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="179">
   <si>
     <t xml:space="preserve">AGUILERA MENDOZA </t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>JUANA MARIA</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -1402,10 +1405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,7 +1417,7 @@
     <col min="4" max="4" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1020500718</v>
       </c>
@@ -1427,8 +1430,11 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1020501018</v>
       </c>
@@ -1441,8 +1447,11 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1010500518</v>
       </c>
@@ -1455,8 +1464,11 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1510501518</v>
       </c>
@@ -1469,8 +1481,11 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1010501418</v>
       </c>
@@ -1483,8 +1498,11 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1010500718</v>
       </c>
@@ -1497,8 +1515,11 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1510502318</v>
       </c>
@@ -1511,8 +1532,11 @@
       <c r="D7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1020500818</v>
       </c>
@@ -1525,8 +1549,11 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1010501318</v>
       </c>
@@ -1539,8 +1566,11 @@
       <c r="D9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1510502916</v>
       </c>
@@ -1553,8 +1583,11 @@
       <c r="D10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1030500518</v>
       </c>
@@ -1567,8 +1600,11 @@
       <c r="D11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1030500118</v>
       </c>
@@ -1581,8 +1617,11 @@
       <c r="D12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1010500418</v>
       </c>
@@ -1595,8 +1634,11 @@
       <c r="D13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1050501018</v>
       </c>
@@ -1609,8 +1651,11 @@
       <c r="D14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1010501818</v>
       </c>
@@ -1623,8 +1668,11 @@
       <c r="D15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1010501718</v>
       </c>
@@ -1637,8 +1685,11 @@
       <c r="D16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1510501818</v>
       </c>
@@ -1651,8 +1702,11 @@
       <c r="D17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1050502018</v>
       </c>
@@ -1665,8 +1719,11 @@
       <c r="D18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1010500116</v>
       </c>
@@ -1679,8 +1736,11 @@
       <c r="D19" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1020500118</v>
       </c>
@@ -1693,8 +1753,11 @@
       <c r="D20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1520500418</v>
       </c>
@@ -1707,8 +1770,11 @@
       <c r="D21" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1050500818</v>
       </c>
@@ -1721,8 +1787,11 @@
       <c r="D22" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1020500218</v>
       </c>
@@ -1735,8 +1804,11 @@
       <c r="D23" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1050500518</v>
       </c>
@@ -1749,8 +1821,11 @@
       <c r="D24" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1510502317</v>
       </c>
@@ -1763,8 +1838,11 @@
       <c r="D25" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1510500818</v>
       </c>
@@ -1777,8 +1855,11 @@
       <c r="D26" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1020500618</v>
       </c>
@@ -1791,8 +1872,11 @@
       <c r="D27" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1510501218</v>
       </c>
@@ -1805,8 +1889,11 @@
       <c r="D28" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1050502418</v>
       </c>
@@ -1819,8 +1906,11 @@
       <c r="D29" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1510500218</v>
       </c>
@@ -1833,8 +1923,11 @@
       <c r="D30" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1010501618</v>
       </c>
@@ -1847,8 +1940,11 @@
       <c r="D31" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1910500118</v>
       </c>
@@ -1861,8 +1957,11 @@
       <c r="D32" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1520500118</v>
       </c>
@@ -1875,8 +1974,11 @@
       <c r="D33" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1510501618</v>
       </c>
@@ -1889,8 +1991,11 @@
       <c r="D34" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1010502116</v>
       </c>
@@ -1903,8 +2008,11 @@
       <c r="D35" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1510500918</v>
       </c>
@@ -1917,8 +2025,11 @@
       <c r="D36" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1020501718</v>
       </c>
@@ -1931,8 +2042,11 @@
       <c r="D37" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1510502218</v>
       </c>
@@ -1945,8 +2059,11 @@
       <c r="D38" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1510502518</v>
       </c>
@@ -1959,8 +2076,11 @@
       <c r="D39" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1520500518</v>
       </c>
@@ -1973,8 +2093,11 @@
       <c r="D40" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1020500518</v>
       </c>
@@ -1987,8 +2110,11 @@
       <c r="D41" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1450500218</v>
       </c>
@@ -2001,8 +2127,11 @@
       <c r="D42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1020501317</v>
       </c>
@@ -2015,8 +2144,11 @@
       <c r="D43" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1010501018</v>
       </c>
@@ -2029,8 +2161,11 @@
       <c r="D44" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1050502318</v>
       </c>
@@ -2043,8 +2178,11 @@
       <c r="D45" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1020501517</v>
       </c>
@@ -2057,8 +2195,11 @@
       <c r="D46" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1050502518</v>
       </c>
@@ -2071,8 +2212,11 @@
       <c r="D47" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1010500818</v>
       </c>
@@ -2085,8 +2229,11 @@
       <c r="D48" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1050502217</v>
       </c>
@@ -2099,8 +2246,11 @@
       <c r="D49" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1050502718</v>
       </c>
@@ -2113,8 +2263,11 @@
       <c r="D50" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1510501718</v>
       </c>
@@ -2127,8 +2280,11 @@
       <c r="D51" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1010500318</v>
       </c>
@@ -2141,8 +2297,11 @@
       <c r="D52" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1510500418</v>
       </c>
@@ -2155,8 +2314,11 @@
       <c r="D53" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1010500118</v>
       </c>
@@ -2169,8 +2331,11 @@
       <c r="D54" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1050501816</v>
       </c>
@@ -2183,8 +2348,11 @@
       <c r="D55" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1020501218</v>
       </c>
@@ -2197,8 +2365,11 @@
       <c r="D56" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1510500318</v>
       </c>
@@ -2211,8 +2382,11 @@
       <c r="D57" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1520500218</v>
       </c>
@@ -2225,8 +2399,11 @@
       <c r="D58" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1510500718</v>
       </c>
@@ -2239,8 +2416,11 @@
       <c r="D59" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1050500318</v>
       </c>
@@ -2253,8 +2433,11 @@
       <c r="D60" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1050500118</v>
       </c>
@@ -2267,8 +2450,11 @@
       <c r="D61" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1010500618</v>
       </c>
@@ -2281,8 +2467,11 @@
       <c r="D62" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1030500318</v>
       </c>
@@ -2295,8 +2484,11 @@
       <c r="D63" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1020501618</v>
       </c>
@@ -2309,8 +2501,11 @@
       <c r="D64" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1050502618</v>
       </c>
@@ -2323,8 +2518,11 @@
       <c r="D65" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1520500318</v>
       </c>
@@ -2337,8 +2535,11 @@
       <c r="D66" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1020501318</v>
       </c>
@@ -2351,8 +2552,11 @@
       <c r="D67" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1500501218</v>
       </c>
@@ -2365,8 +2569,11 @@
       <c r="D68" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1010501118</v>
       </c>
@@ -2379,8 +2586,11 @@
       <c r="D69" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1510500118</v>
       </c>
@@ -2393,8 +2603,11 @@
       <c r="D70" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1050500618</v>
       </c>
@@ -2407,8 +2620,11 @@
       <c r="D71" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1050501218</v>
       </c>
@@ -2421,8 +2637,11 @@
       <c r="D72" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1020501418</v>
       </c>
@@ -2435,8 +2654,11 @@
       <c r="D73" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1020500117</v>
       </c>
@@ -2449,8 +2671,11 @@
       <c r="D74" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1510501118</v>
       </c>
@@ -2463,8 +2688,11 @@
       <c r="D75" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1510501418</v>
       </c>
@@ -2477,8 +2705,11 @@
       <c r="D76" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1050500418</v>
       </c>
@@ -2491,8 +2722,11 @@
       <c r="D77" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1450500118</v>
       </c>
@@ -2505,8 +2739,11 @@
       <c r="D78" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1020501918</v>
       </c>
@@ -2519,8 +2756,11 @@
       <c r="D79" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1510502018</v>
       </c>
@@ -2533,8 +2773,11 @@
       <c r="D80" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1020500918</v>
       </c>
@@ -2547,8 +2790,11 @@
       <c r="D81" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1020500318</v>
       </c>
@@ -2561,8 +2807,11 @@
       <c r="D82" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1510501918</v>
       </c>
@@ -2575,8 +2824,11 @@
       <c r="D83" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1050500718</v>
       </c>
@@ -2589,8 +2841,11 @@
       <c r="D84" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1020501818</v>
       </c>
@@ -2603,8 +2858,11 @@
       <c r="D85" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1450500318</v>
       </c>
@@ -2617,8 +2875,11 @@
       <c r="D86" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1050500218</v>
       </c>
@@ -2631,8 +2892,11 @@
       <c r="D87" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1070500216</v>
       </c>
@@ -2645,8 +2909,11 @@
       <c r="D88" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1050501318</v>
       </c>
@@ -2659,8 +2926,11 @@
       <c r="D89" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1050501618</v>
       </c>
@@ -2672,6 +2942,9 @@
       </c>
       <c r="D90" t="s">
         <v>177</v>
+      </c>
+      <c r="E90" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/public/cursoTesis-2022/AlumnoCursoTesis2022.xlsx
+++ b/public/cursoTesis-2022/AlumnoCursoTesis2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proyect-tesis-conta\public\cursoTesis-2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sistema-tesis-upao-unt\public\cursoTesis-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FE7D6E-1B1D-4A42-83A6-675FD84D8D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EF252D-FE02-425F-92C8-58430D555E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AlumnoCursoTesis2022" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="179">
-  <si>
-    <t xml:space="preserve">AGUILERA MENDOZA </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="183">
   <si>
     <t>ANDREA ELIZABETH</t>
   </si>
@@ -556,7 +553,22 @@
     <t>JUANA MARIA</t>
   </si>
   <si>
-    <t>null</t>
+    <t>dfsadfsdfsdaf</t>
+  </si>
+  <si>
+    <t>cod_matricula</t>
+  </si>
+  <si>
+    <t>dni</t>
+  </si>
+  <si>
+    <t>apellidos</t>
+  </si>
+  <si>
+    <t>nombres</t>
+  </si>
+  <si>
+    <t>correo</t>
   </si>
 </sst>
 </file>
@@ -1405,10 +1417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1418,1539 +1430,1286 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1020500718</v>
-      </c>
-      <c r="B1">
-        <v>11111111</v>
+      <c r="A1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" t="s">
+        <v>179</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="E1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1020501018</v>
+        <v>1020500718</v>
       </c>
       <c r="B2">
         <v>11111111</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>177</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1010500518</v>
+        <v>1020501018</v>
       </c>
       <c r="B3">
         <v>11111111</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>178</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1510501518</v>
+        <v>1010500518</v>
       </c>
       <c r="B4">
         <v>11111111</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>178</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1010501418</v>
+        <v>1510501518</v>
       </c>
       <c r="B5">
         <v>11111111</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>178</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1010500718</v>
+        <v>1010501418</v>
       </c>
       <c r="B6">
         <v>11111111</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>178</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1510502318</v>
+        <v>1010500718</v>
       </c>
       <c r="B7">
         <v>11111111</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1020500818</v>
+        <v>1510502318</v>
       </c>
       <c r="B8">
         <v>11111111</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>178</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1010501318</v>
+        <v>1020500818</v>
       </c>
       <c r="B9">
         <v>11111111</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1510502916</v>
+        <v>1010501318</v>
       </c>
       <c r="B10">
         <v>11111111</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>178</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1030500518</v>
+        <v>1510502916</v>
       </c>
       <c r="B11">
         <v>11111111</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>178</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1030500118</v>
+        <v>1030500518</v>
       </c>
       <c r="B12">
         <v>11111111</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>178</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1010500418</v>
+        <v>1030500118</v>
       </c>
       <c r="B13">
         <v>11111111</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1050501018</v>
+        <v>1010500418</v>
       </c>
       <c r="B14">
         <v>11111111</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" t="s">
-        <v>178</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1010501818</v>
+        <v>1050501018</v>
       </c>
       <c r="B15">
         <v>11111111</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" t="s">
-        <v>178</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>1010501818</v>
+      </c>
+      <c r="B16">
+        <v>11111111</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>1010501718</v>
       </c>
-      <c r="B16">
-        <v>11111111</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B17">
+        <v>11111111</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
         <v>30</v>
       </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1510501818</v>
+      </c>
+      <c r="B18">
+        <v>11111111</v>
+      </c>
+      <c r="C18" t="s">
         <v>31</v>
       </c>
-      <c r="E16" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1510501818</v>
-      </c>
-      <c r="B17">
-        <v>11111111</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D18" t="s">
         <v>32</v>
       </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1050502018</v>
+      </c>
+      <c r="B19">
+        <v>11111111</v>
+      </c>
+      <c r="C19" t="s">
         <v>33</v>
       </c>
-      <c r="E17" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1050502018</v>
-      </c>
-      <c r="B18">
-        <v>11111111</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D19" t="s">
         <v>34</v>
       </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1010500116</v>
+      </c>
+      <c r="B20">
+        <v>11111111</v>
+      </c>
+      <c r="C20" t="s">
         <v>35</v>
       </c>
-      <c r="E18" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1010500116</v>
-      </c>
-      <c r="B19">
-        <v>11111111</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D20" t="s">
         <v>36</v>
       </c>
-      <c r="D19" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1020500118</v>
+      </c>
+      <c r="B21">
+        <v>11111111</v>
+      </c>
+      <c r="C21" t="s">
         <v>37</v>
       </c>
-      <c r="E19" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1020500118</v>
-      </c>
-      <c r="B20">
-        <v>11111111</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D21" t="s">
         <v>38</v>
       </c>
-      <c r="D20" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1520500418</v>
+      </c>
+      <c r="B22">
+        <v>11111111</v>
+      </c>
+      <c r="C22" t="s">
         <v>39</v>
       </c>
-      <c r="E20" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1520500418</v>
-      </c>
-      <c r="B21">
-        <v>11111111</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D22" t="s">
         <v>40</v>
       </c>
-      <c r="D21" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1050500818</v>
+      </c>
+      <c r="B23">
+        <v>11111111</v>
+      </c>
+      <c r="C23" t="s">
         <v>41</v>
       </c>
-      <c r="E21" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1050500818</v>
-      </c>
-      <c r="B22">
-        <v>11111111</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D23" t="s">
         <v>42</v>
       </c>
-      <c r="D22" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1020500218</v>
+      </c>
+      <c r="B24">
+        <v>11111111</v>
+      </c>
+      <c r="C24" t="s">
         <v>43</v>
       </c>
-      <c r="E22" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1020500218</v>
-      </c>
-      <c r="B23">
-        <v>11111111</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D24" t="s">
         <v>44</v>
       </c>
-      <c r="D23" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1050500518</v>
+      </c>
+      <c r="B25">
+        <v>11111111</v>
+      </c>
+      <c r="C25" t="s">
         <v>45</v>
       </c>
-      <c r="E23" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1050500518</v>
-      </c>
-      <c r="B24">
-        <v>11111111</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D25" t="s">
         <v>46</v>
       </c>
-      <c r="D24" t="s">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1510502317</v>
+      </c>
+      <c r="B26">
+        <v>11111111</v>
+      </c>
+      <c r="C26" t="s">
         <v>47</v>
       </c>
-      <c r="E24" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1510502317</v>
-      </c>
-      <c r="B25">
-        <v>11111111</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D26" t="s">
         <v>48</v>
       </c>
-      <c r="D25" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1510500818</v>
+      </c>
+      <c r="B27">
+        <v>11111111</v>
+      </c>
+      <c r="C27" t="s">
         <v>49</v>
       </c>
-      <c r="E25" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1510500818</v>
-      </c>
-      <c r="B26">
-        <v>11111111</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D27" t="s">
         <v>50</v>
       </c>
-      <c r="D26" t="s">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1020500618</v>
+      </c>
+      <c r="B28">
+        <v>11111111</v>
+      </c>
+      <c r="C28" t="s">
         <v>51</v>
       </c>
-      <c r="E26" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1020500618</v>
-      </c>
-      <c r="B27">
-        <v>11111111</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D28" t="s">
         <v>52</v>
       </c>
-      <c r="D27" t="s">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1510501218</v>
+      </c>
+      <c r="B29">
+        <v>11111111</v>
+      </c>
+      <c r="C29" t="s">
         <v>53</v>
       </c>
-      <c r="E27" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1510501218</v>
-      </c>
-      <c r="B28">
-        <v>11111111</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="D29" t="s">
         <v>54</v>
       </c>
-      <c r="D28" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1050502418</v>
+      </c>
+      <c r="B30">
+        <v>11111111</v>
+      </c>
+      <c r="C30" t="s">
         <v>55</v>
       </c>
-      <c r="E28" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1050502418</v>
-      </c>
-      <c r="B29">
-        <v>11111111</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="D30" t="s">
         <v>56</v>
       </c>
-      <c r="D29" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1510500218</v>
+      </c>
+      <c r="B31">
+        <v>11111111</v>
+      </c>
+      <c r="C31" t="s">
         <v>57</v>
       </c>
-      <c r="E29" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1510500218</v>
-      </c>
-      <c r="B30">
-        <v>11111111</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D31" t="s">
         <v>58</v>
       </c>
-      <c r="D30" t="s">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1010501618</v>
+      </c>
+      <c r="B32">
+        <v>11111111</v>
+      </c>
+      <c r="C32" t="s">
         <v>59</v>
       </c>
-      <c r="E30" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1010501618</v>
-      </c>
-      <c r="B31">
-        <v>11111111</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D32" t="s">
         <v>60</v>
       </c>
-      <c r="D31" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1910500118</v>
+      </c>
+      <c r="B33">
+        <v>11111111</v>
+      </c>
+      <c r="C33" t="s">
         <v>61</v>
       </c>
-      <c r="E31" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1910500118</v>
-      </c>
-      <c r="B32">
-        <v>11111111</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D33" t="s">
         <v>62</v>
       </c>
-      <c r="D32" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1520500118</v>
+      </c>
+      <c r="B34">
+        <v>11111111</v>
+      </c>
+      <c r="C34" t="s">
         <v>63</v>
       </c>
-      <c r="E32" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1520500118</v>
-      </c>
-      <c r="B33">
-        <v>11111111</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D34" t="s">
         <v>64</v>
       </c>
-      <c r="D33" t="s">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1510501618</v>
+      </c>
+      <c r="B35">
+        <v>11111111</v>
+      </c>
+      <c r="C35" t="s">
         <v>65</v>
       </c>
-      <c r="E33" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>1510501618</v>
-      </c>
-      <c r="B34">
-        <v>11111111</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D35" t="s">
         <v>66</v>
       </c>
-      <c r="D34" t="s">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1010502116</v>
+      </c>
+      <c r="B36">
+        <v>11111111</v>
+      </c>
+      <c r="C36" t="s">
         <v>67</v>
       </c>
-      <c r="E34" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>1010502116</v>
-      </c>
-      <c r="B35">
-        <v>11111111</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D36" t="s">
         <v>68</v>
       </c>
-      <c r="D35" t="s">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1510500918</v>
+      </c>
+      <c r="B37">
+        <v>11111111</v>
+      </c>
+      <c r="C37" t="s">
         <v>69</v>
       </c>
-      <c r="E35" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>1510500918</v>
-      </c>
-      <c r="B36">
-        <v>11111111</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D37" t="s">
         <v>70</v>
       </c>
-      <c r="D36" t="s">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1020501718</v>
+      </c>
+      <c r="B38">
+        <v>11111111</v>
+      </c>
+      <c r="C38" t="s">
         <v>71</v>
       </c>
-      <c r="E36" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>1020501718</v>
-      </c>
-      <c r="B37">
-        <v>11111111</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D38" t="s">
         <v>72</v>
       </c>
-      <c r="D37" t="s">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1510502218</v>
+      </c>
+      <c r="B39">
+        <v>11111111</v>
+      </c>
+      <c r="C39" t="s">
         <v>73</v>
       </c>
-      <c r="E37" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>1510502218</v>
-      </c>
-      <c r="B38">
-        <v>11111111</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D39" t="s">
         <v>74</v>
       </c>
-      <c r="D38" t="s">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1510502518</v>
+      </c>
+      <c r="B40">
+        <v>11111111</v>
+      </c>
+      <c r="C40" t="s">
         <v>75</v>
       </c>
-      <c r="E38" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>1510502518</v>
-      </c>
-      <c r="B39">
-        <v>11111111</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D40" t="s">
         <v>76</v>
       </c>
-      <c r="D39" t="s">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1520500518</v>
+      </c>
+      <c r="B41">
+        <v>11111111</v>
+      </c>
+      <c r="C41" t="s">
         <v>77</v>
       </c>
-      <c r="E39" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>1520500518</v>
-      </c>
-      <c r="B40">
-        <v>11111111</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D41" t="s">
         <v>78</v>
       </c>
-      <c r="D40" t="s">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1020500518</v>
+      </c>
+      <c r="B42">
+        <v>11111111</v>
+      </c>
+      <c r="C42" t="s">
         <v>79</v>
       </c>
-      <c r="E40" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>1020500518</v>
-      </c>
-      <c r="B41">
-        <v>11111111</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D42" t="s">
         <v>80</v>
       </c>
-      <c r="D41" t="s">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1450500218</v>
+      </c>
+      <c r="B43">
+        <v>11111111</v>
+      </c>
+      <c r="C43" t="s">
         <v>81</v>
       </c>
-      <c r="E41" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>1450500218</v>
-      </c>
-      <c r="B42">
-        <v>11111111</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D43" t="s">
         <v>82</v>
       </c>
-      <c r="D42" t="s">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1020501317</v>
+      </c>
+      <c r="B44">
+        <v>11111111</v>
+      </c>
+      <c r="C44" t="s">
         <v>83</v>
       </c>
-      <c r="E42" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>1020501317</v>
-      </c>
-      <c r="B43">
-        <v>11111111</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="D44" t="s">
         <v>84</v>
       </c>
-      <c r="D43" t="s">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1010501018</v>
+      </c>
+      <c r="B45">
+        <v>11111111</v>
+      </c>
+      <c r="C45" t="s">
         <v>85</v>
       </c>
-      <c r="E43" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>1010501018</v>
-      </c>
-      <c r="B44">
-        <v>11111111</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="D45" t="s">
         <v>86</v>
       </c>
-      <c r="D44" t="s">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1050502318</v>
+      </c>
+      <c r="B46">
+        <v>11111111</v>
+      </c>
+      <c r="C46" t="s">
         <v>87</v>
       </c>
-      <c r="E44" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>1050502318</v>
-      </c>
-      <c r="B45">
-        <v>11111111</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="D46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1020501517</v>
+      </c>
+      <c r="B47">
+        <v>11111111</v>
+      </c>
+      <c r="C47" t="s">
         <v>88</v>
       </c>
-      <c r="D45" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>1020501517</v>
-      </c>
-      <c r="B46">
-        <v>11111111</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="D47" t="s">
         <v>89</v>
       </c>
-      <c r="D46" t="s">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1050502518</v>
+      </c>
+      <c r="B48">
+        <v>11111111</v>
+      </c>
+      <c r="C48" t="s">
         <v>90</v>
       </c>
-      <c r="E46" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>1050502518</v>
-      </c>
-      <c r="B47">
-        <v>11111111</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="D48" t="s">
         <v>91</v>
       </c>
-      <c r="D47" t="s">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1010500818</v>
+      </c>
+      <c r="B49">
+        <v>11111111</v>
+      </c>
+      <c r="C49" t="s">
         <v>92</v>
       </c>
-      <c r="E47" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>1010500818</v>
-      </c>
-      <c r="B48">
-        <v>11111111</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="D49" t="s">
         <v>93</v>
       </c>
-      <c r="D48" t="s">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1050502217</v>
+      </c>
+      <c r="B50">
+        <v>11111111</v>
+      </c>
+      <c r="C50" t="s">
         <v>94</v>
       </c>
-      <c r="E48" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>1050502217</v>
-      </c>
-      <c r="B49">
-        <v>11111111</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="D50" t="s">
         <v>95</v>
       </c>
-      <c r="D49" t="s">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1050502718</v>
+      </c>
+      <c r="B51">
+        <v>11111111</v>
+      </c>
+      <c r="C51" t="s">
         <v>96</v>
       </c>
-      <c r="E49" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>1050502718</v>
-      </c>
-      <c r="B50">
-        <v>11111111</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="D51" t="s">
         <v>97</v>
       </c>
-      <c r="D50" t="s">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1510501718</v>
+      </c>
+      <c r="B52">
+        <v>11111111</v>
+      </c>
+      <c r="C52" t="s">
         <v>98</v>
       </c>
-      <c r="E50" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>1510501718</v>
-      </c>
-      <c r="B51">
-        <v>11111111</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="D52" t="s">
         <v>99</v>
       </c>
-      <c r="D51" t="s">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1010500318</v>
+      </c>
+      <c r="B53">
+        <v>11111111</v>
+      </c>
+      <c r="C53" t="s">
         <v>100</v>
       </c>
-      <c r="E51" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>1010500318</v>
-      </c>
-      <c r="B52">
-        <v>11111111</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="D53" t="s">
         <v>101</v>
       </c>
-      <c r="D52" t="s">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1510500418</v>
+      </c>
+      <c r="B54">
+        <v>11111111</v>
+      </c>
+      <c r="C54" t="s">
         <v>102</v>
       </c>
-      <c r="E52" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>1510500418</v>
-      </c>
-      <c r="B53">
-        <v>11111111</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="D54" t="s">
         <v>103</v>
       </c>
-      <c r="D53" t="s">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1010500118</v>
+      </c>
+      <c r="B55">
+        <v>11111111</v>
+      </c>
+      <c r="C55" t="s">
         <v>104</v>
       </c>
-      <c r="E53" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>1010500118</v>
-      </c>
-      <c r="B54">
-        <v>11111111</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="D55" t="s">
         <v>105</v>
       </c>
-      <c r="D54" t="s">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1050501816</v>
+      </c>
+      <c r="B56">
+        <v>11111111</v>
+      </c>
+      <c r="C56" t="s">
         <v>106</v>
       </c>
-      <c r="E54" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>1050501816</v>
-      </c>
-      <c r="B55">
-        <v>11111111</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="D56" t="s">
         <v>107</v>
       </c>
-      <c r="D55" t="s">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1020501218</v>
+      </c>
+      <c r="B57">
+        <v>11111111</v>
+      </c>
+      <c r="C57" t="s">
         <v>108</v>
       </c>
-      <c r="E55" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>1020501218</v>
-      </c>
-      <c r="B56">
-        <v>11111111</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="D57" t="s">
         <v>109</v>
       </c>
-      <c r="D56" t="s">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1510500318</v>
+      </c>
+      <c r="B58">
+        <v>11111111</v>
+      </c>
+      <c r="C58" t="s">
         <v>110</v>
       </c>
-      <c r="E56" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>1510500318</v>
-      </c>
-      <c r="B57">
-        <v>11111111</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="D58" t="s">
         <v>111</v>
       </c>
-      <c r="D57" t="s">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1520500218</v>
+      </c>
+      <c r="B59">
+        <v>11111111</v>
+      </c>
+      <c r="C59" t="s">
         <v>112</v>
       </c>
-      <c r="E57" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>1520500218</v>
-      </c>
-      <c r="B58">
-        <v>11111111</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="D59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1510500718</v>
+      </c>
+      <c r="B60">
+        <v>11111111</v>
+      </c>
+      <c r="C60" t="s">
         <v>113</v>
       </c>
-      <c r="D58" t="s">
-        <v>69</v>
-      </c>
-      <c r="E58" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>1510500718</v>
-      </c>
-      <c r="B59">
-        <v>11111111</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="D60" t="s">
         <v>114</v>
       </c>
-      <c r="D59" t="s">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1050500318</v>
+      </c>
+      <c r="B61">
+        <v>11111111</v>
+      </c>
+      <c r="C61" t="s">
         <v>115</v>
       </c>
-      <c r="E59" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>1050500318</v>
-      </c>
-      <c r="B60">
-        <v>11111111</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="D61" t="s">
         <v>116</v>
       </c>
-      <c r="D60" t="s">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1050500118</v>
+      </c>
+      <c r="B62">
+        <v>11111111</v>
+      </c>
+      <c r="C62" t="s">
         <v>117</v>
       </c>
-      <c r="E60" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>1050500118</v>
-      </c>
-      <c r="B61">
-        <v>11111111</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="D62" t="s">
         <v>118</v>
       </c>
-      <c r="D61" t="s">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1010500618</v>
+      </c>
+      <c r="B63">
+        <v>11111111</v>
+      </c>
+      <c r="C63" t="s">
         <v>119</v>
       </c>
-      <c r="E61" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>1010500618</v>
-      </c>
-      <c r="B62">
-        <v>11111111</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="D63" t="s">
         <v>120</v>
       </c>
-      <c r="D62" t="s">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1030500318</v>
+      </c>
+      <c r="B64">
+        <v>11111111</v>
+      </c>
+      <c r="C64" t="s">
         <v>121</v>
       </c>
-      <c r="E62" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>1030500318</v>
-      </c>
-      <c r="B63">
-        <v>11111111</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="D64" t="s">
         <v>122</v>
       </c>
-      <c r="D63" t="s">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1020501618</v>
+      </c>
+      <c r="B65">
+        <v>11111111</v>
+      </c>
+      <c r="C65" t="s">
         <v>123</v>
       </c>
-      <c r="E63" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>1020501618</v>
-      </c>
-      <c r="B64">
-        <v>11111111</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="D65" t="s">
         <v>124</v>
       </c>
-      <c r="D64" t="s">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1050502618</v>
+      </c>
+      <c r="B66">
+        <v>11111111</v>
+      </c>
+      <c r="C66" t="s">
         <v>125</v>
       </c>
-      <c r="E64" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>1050502618</v>
-      </c>
-      <c r="B65">
-        <v>11111111</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="D66" t="s">
         <v>126</v>
       </c>
-      <c r="D65" t="s">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1520500318</v>
+      </c>
+      <c r="B67">
+        <v>11111111</v>
+      </c>
+      <c r="C67" t="s">
         <v>127</v>
       </c>
-      <c r="E65" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>1520500318</v>
-      </c>
-      <c r="B66">
-        <v>11111111</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="D67" t="s">
         <v>128</v>
       </c>
-      <c r="D66" t="s">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1020501318</v>
+      </c>
+      <c r="B68">
+        <v>11111111</v>
+      </c>
+      <c r="C68" t="s">
         <v>129</v>
       </c>
-      <c r="E66" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>1020501318</v>
-      </c>
-      <c r="B67">
-        <v>11111111</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="D68" t="s">
         <v>130</v>
       </c>
-      <c r="D67" t="s">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1500501218</v>
+      </c>
+      <c r="B69">
+        <v>11111111</v>
+      </c>
+      <c r="C69" t="s">
         <v>131</v>
       </c>
-      <c r="E67" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>1500501218</v>
-      </c>
-      <c r="B68">
-        <v>11111111</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="D69" t="s">
         <v>132</v>
       </c>
-      <c r="D68" t="s">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1010501118</v>
+      </c>
+      <c r="B70">
+        <v>11111111</v>
+      </c>
+      <c r="C70" t="s">
         <v>133</v>
       </c>
-      <c r="E68" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>1010501118</v>
-      </c>
-      <c r="B69">
-        <v>11111111</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="D70" t="s">
         <v>134</v>
       </c>
-      <c r="D69" t="s">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1510500118</v>
+      </c>
+      <c r="B71">
+        <v>11111111</v>
+      </c>
+      <c r="C71" t="s">
         <v>135</v>
       </c>
-      <c r="E69" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>1510500118</v>
-      </c>
-      <c r="B70">
-        <v>11111111</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="D71" t="s">
         <v>136</v>
       </c>
-      <c r="D70" t="s">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1050500618</v>
+      </c>
+      <c r="B72">
+        <v>11111111</v>
+      </c>
+      <c r="C72" t="s">
         <v>137</v>
       </c>
-      <c r="E70" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>1050500618</v>
-      </c>
-      <c r="B71">
-        <v>11111111</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="D72" t="s">
         <v>138</v>
       </c>
-      <c r="D71" t="s">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1050501218</v>
+      </c>
+      <c r="B73">
+        <v>11111111</v>
+      </c>
+      <c r="C73" t="s">
         <v>139</v>
       </c>
-      <c r="E71" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>1050501218</v>
-      </c>
-      <c r="B72">
-        <v>11111111</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="D73" t="s">
         <v>140</v>
       </c>
-      <c r="D72" t="s">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1020501418</v>
+      </c>
+      <c r="B74">
+        <v>11111111</v>
+      </c>
+      <c r="C74" t="s">
         <v>141</v>
       </c>
-      <c r="E72" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>1020501418</v>
-      </c>
-      <c r="B73">
-        <v>11111111</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="D74" t="s">
         <v>142</v>
       </c>
-      <c r="D73" t="s">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1020500117</v>
+      </c>
+      <c r="B75">
+        <v>11111111</v>
+      </c>
+      <c r="C75" t="s">
         <v>143</v>
       </c>
-      <c r="E73" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>1020500117</v>
-      </c>
-      <c r="B74">
-        <v>11111111</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="D75" t="s">
         <v>144</v>
       </c>
-      <c r="D74" t="s">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1510501118</v>
+      </c>
+      <c r="B76">
+        <v>11111111</v>
+      </c>
+      <c r="C76" t="s">
         <v>145</v>
       </c>
-      <c r="E74" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>1510501118</v>
-      </c>
-      <c r="B75">
-        <v>11111111</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="D76" t="s">
         <v>146</v>
       </c>
-      <c r="D75" t="s">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1510501418</v>
+      </c>
+      <c r="B77">
+        <v>11111111</v>
+      </c>
+      <c r="C77" t="s">
         <v>147</v>
       </c>
-      <c r="E75" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>1510501418</v>
-      </c>
-      <c r="B76">
-        <v>11111111</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="D77" t="s">
         <v>148</v>
       </c>
-      <c r="D76" t="s">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1050500418</v>
+      </c>
+      <c r="B78">
+        <v>11111111</v>
+      </c>
+      <c r="C78" t="s">
         <v>149</v>
       </c>
-      <c r="E76" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>1050500418</v>
-      </c>
-      <c r="B77">
-        <v>11111111</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="D78" t="s">
         <v>150</v>
       </c>
-      <c r="D77" t="s">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1450500118</v>
+      </c>
+      <c r="B79">
+        <v>11111111</v>
+      </c>
+      <c r="C79" t="s">
         <v>151</v>
       </c>
-      <c r="E77" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>1450500118</v>
-      </c>
-      <c r="B78">
-        <v>11111111</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="D79" t="s">
         <v>152</v>
       </c>
-      <c r="D78" t="s">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1020501918</v>
+      </c>
+      <c r="B80">
+        <v>11111111</v>
+      </c>
+      <c r="C80" t="s">
         <v>153</v>
       </c>
-      <c r="E78" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>1020501918</v>
-      </c>
-      <c r="B79">
-        <v>11111111</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="D80" t="s">
         <v>154</v>
       </c>
-      <c r="D79" t="s">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1510502018</v>
+      </c>
+      <c r="B81">
+        <v>11111111</v>
+      </c>
+      <c r="C81" t="s">
         <v>155</v>
       </c>
-      <c r="E79" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>1510502018</v>
-      </c>
-      <c r="B80">
-        <v>11111111</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="D81" t="s">
         <v>156</v>
       </c>
-      <c r="D80" t="s">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1020500918</v>
+      </c>
+      <c r="B82">
+        <v>11111111</v>
+      </c>
+      <c r="C82" t="s">
         <v>157</v>
       </c>
-      <c r="E80" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>1020500918</v>
-      </c>
-      <c r="B81">
-        <v>11111111</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="D82" t="s">
         <v>158</v>
       </c>
-      <c r="D81" t="s">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1020500318</v>
+      </c>
+      <c r="B83">
+        <v>11111111</v>
+      </c>
+      <c r="C83" t="s">
         <v>159</v>
       </c>
-      <c r="E81" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>1020500318</v>
-      </c>
-      <c r="B82">
-        <v>11111111</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="D83" t="s">
         <v>160</v>
       </c>
-      <c r="D82" t="s">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1510501918</v>
+      </c>
+      <c r="B84">
+        <v>11111111</v>
+      </c>
+      <c r="C84" t="s">
         <v>161</v>
       </c>
-      <c r="E82" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>1510501918</v>
-      </c>
-      <c r="B83">
-        <v>11111111</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="D84" t="s">
         <v>162</v>
       </c>
-      <c r="D83" t="s">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1050500718</v>
+      </c>
+      <c r="B85">
+        <v>11111111</v>
+      </c>
+      <c r="C85" t="s">
         <v>163</v>
       </c>
-      <c r="E83" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>1050500718</v>
-      </c>
-      <c r="B84">
-        <v>11111111</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="D85" t="s">
         <v>164</v>
       </c>
-      <c r="D84" t="s">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1020501818</v>
+      </c>
+      <c r="B86">
+        <v>11111111</v>
+      </c>
+      <c r="C86" t="s">
         <v>165</v>
       </c>
-      <c r="E84" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>1020501818</v>
-      </c>
-      <c r="B85">
-        <v>11111111</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="D86" t="s">
         <v>166</v>
       </c>
-      <c r="D85" t="s">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1450500318</v>
+      </c>
+      <c r="B87">
+        <v>11111111</v>
+      </c>
+      <c r="C87" t="s">
         <v>167</v>
       </c>
-      <c r="E85" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>1450500318</v>
-      </c>
-      <c r="B86">
-        <v>11111111</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="D87" t="s">
         <v>168</v>
       </c>
-      <c r="D86" t="s">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1050500218</v>
+      </c>
+      <c r="B88">
+        <v>11111111</v>
+      </c>
+      <c r="C88" t="s">
         <v>169</v>
       </c>
-      <c r="E86" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>1050500218</v>
-      </c>
-      <c r="B87">
-        <v>11111111</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="D88" t="s">
         <v>170</v>
       </c>
-      <c r="D87" t="s">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1070500216</v>
+      </c>
+      <c r="B89">
+        <v>11111111</v>
+      </c>
+      <c r="C89" t="s">
         <v>171</v>
       </c>
-      <c r="E87" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>1070500216</v>
-      </c>
-      <c r="B88">
-        <v>11111111</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="D89" t="s">
         <v>172</v>
       </c>
-      <c r="D88" t="s">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1050501318</v>
+      </c>
+      <c r="B90">
+        <v>11111111</v>
+      </c>
+      <c r="C90" t="s">
         <v>173</v>
       </c>
-      <c r="E88" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>1050501318</v>
-      </c>
-      <c r="B89">
-        <v>11111111</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="D90" t="s">
         <v>174</v>
       </c>
-      <c r="D89" t="s">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1050501618</v>
+      </c>
+      <c r="B91">
+        <v>11111111</v>
+      </c>
+      <c r="C91" t="s">
         <v>175</v>
       </c>
-      <c r="E89" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>1050501618</v>
-      </c>
-      <c r="B90">
-        <v>11111111</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="D91" t="s">
         <v>176</v>
       </c>
-      <c r="D90" t="s">
-        <v>177</v>
-      </c>
-      <c r="E90" t="s">
-        <v>178</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="H12">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="1450500218">
-      <formula>NOT(ISERROR(SEARCH("1450500218",H11)))</formula>
+      <formula>NOT(ISERROR(SEARCH("1450500218",H12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
